--- a/data/transitionTable.xlsx
+++ b/data/transitionTable.xlsx
@@ -91,7 +91,7 @@
     <t>&amp;</t>
   </si>
   <si>
-    <t>EPSILON</t>
+    <t>ε</t>
   </si>
   <si>
     <t>)</t>

--- a/data/transitionTable.xlsx
+++ b/data/transitionTable.xlsx
@@ -128,13 +128,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -181,21 +181,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -509,37 +506,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -674,7 +671,7 @@
       <c r="L2" s="3">
         <v>32</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>28</v>
       </c>
       <c r="N2" s="3">
@@ -769,7 +766,7 @@
       <c r="L3" s="3">
         <v>8</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>7</v>
       </c>
       <c r="N3" s="3">
@@ -864,7 +861,7 @@
       <c r="L4" s="3">
         <v>8</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>8</v>
       </c>
       <c r="N4" s="3">
@@ -959,7 +956,7 @@
       <c r="L5" s="3">
         <v>65</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="3">
         <v>65</v>
       </c>
@@ -1052,7 +1049,7 @@
       <c r="L6" s="3">
         <v>65</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="3">
         <v>65</v>
       </c>
@@ -1145,7 +1142,7 @@
       <c r="L7" s="3">
         <v>65</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="3">
         <v>65</v>
       </c>
@@ -1238,7 +1235,7 @@
       <c r="L8" s="3">
         <v>65</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="3">
         <v>65</v>
       </c>
@@ -1331,7 +1328,7 @@
       <c r="L9" s="3">
         <v>10</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>10</v>
       </c>
       <c r="N9" s="3">
@@ -1426,7 +1423,7 @@
       <c r="L10" s="3">
         <v>65</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="3">
         <v>65</v>
       </c>
@@ -1519,7 +1516,7 @@
       <c r="L11" s="3">
         <v>10</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>10</v>
       </c>
       <c r="N11" s="3">
@@ -1614,7 +1611,7 @@
       <c r="L12" s="3">
         <v>14</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>14</v>
       </c>
       <c r="N12" s="3">
@@ -1709,7 +1706,7 @@
       <c r="L13" s="3">
         <v>14</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>14</v>
       </c>
       <c r="N13" s="3">
@@ -1804,7 +1801,7 @@
       <c r="L14" s="3">
         <v>65</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="3">
         <v>65</v>
       </c>
@@ -1897,7 +1894,7 @@
       <c r="L15" s="3">
         <v>65</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="3">
         <v>65</v>
       </c>
@@ -1990,7 +1987,7 @@
       <c r="L16" s="3">
         <v>65</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="3">
         <v>65</v>
       </c>
@@ -2083,7 +2080,7 @@
       <c r="L17" s="3">
         <v>65</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="3">
         <v>65</v>
       </c>
@@ -2176,7 +2173,7 @@
       <c r="L18" s="3">
         <v>65</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="3">
         <v>65</v>
       </c>
@@ -2269,7 +2266,7 @@
       <c r="L19" s="3">
         <v>65</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="3">
         <v>65</v>
       </c>
@@ -2362,7 +2359,7 @@
       <c r="L20" s="3">
         <v>65</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="3">
         <v>65</v>
       </c>
@@ -2455,7 +2452,7 @@
       <c r="L21" s="3">
         <v>65</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="3">
         <v>65</v>
       </c>
@@ -2548,7 +2545,7 @@
       <c r="L22" s="3">
         <v>65</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="3">
         <v>65</v>
       </c>
@@ -2641,7 +2638,7 @@
       <c r="L23" s="3">
         <v>65</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="3">
         <v>65</v>
       </c>
@@ -2734,7 +2731,7 @@
       <c r="L24" s="3">
         <v>65</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="3">
         <v>65</v>
       </c>
@@ -2827,7 +2824,7 @@
       <c r="L25" s="3">
         <v>65</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="3">
         <v>65</v>
       </c>
@@ -2920,7 +2917,7 @@
       <c r="L26" s="3">
         <v>65</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="3">
         <v>65</v>
       </c>
@@ -3013,7 +3010,7 @@
       <c r="L27" s="3">
         <v>65</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="3">
         <v>65</v>
       </c>
@@ -3106,7 +3103,7 @@
       <c r="L28" s="3">
         <v>65</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>29</v>
       </c>
       <c r="N28" s="3">
@@ -3201,7 +3198,7 @@
       <c r="L29" s="3">
         <v>65</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="3">
         <v>65</v>
       </c>
@@ -3294,7 +3291,7 @@
       <c r="L30" s="3">
         <v>65</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>31</v>
       </c>
       <c r="N30" s="3">
@@ -3389,7 +3386,7 @@
       <c r="L31" s="3">
         <v>65</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="4"/>
       <c r="N31" s="3">
         <v>65</v>
       </c>
@@ -3482,7 +3479,7 @@
       <c r="L32" s="3">
         <v>34</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>33</v>
       </c>
       <c r="N32" s="3">
@@ -3577,7 +3574,7 @@
       <c r="L33" s="3">
         <v>65</v>
       </c>
-      <c r="M33" s="5"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="3">
         <v>65</v>
       </c>
@@ -3670,7 +3667,7 @@
       <c r="L34" s="3">
         <v>65</v>
       </c>
-      <c r="M34" s="5"/>
+      <c r="M34" s="4"/>
       <c r="N34" s="3">
         <v>65</v>
       </c>
@@ -3763,7 +3760,7 @@
       <c r="L35" s="3">
         <v>65</v>
       </c>
-      <c r="M35" s="5"/>
+      <c r="M35" s="4"/>
       <c r="N35" s="3">
         <v>65</v>
       </c>
@@ -3856,7 +3853,7 @@
       <c r="L36" s="3">
         <v>65</v>
       </c>
-      <c r="M36" s="5"/>
+      <c r="M36" s="4"/>
       <c r="N36" s="3">
         <v>65</v>
       </c>
@@ -3949,7 +3946,7 @@
       <c r="L37" s="3">
         <v>65</v>
       </c>
-      <c r="M37" s="5"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="3">
         <v>65</v>
       </c>
@@ -4042,7 +4039,7 @@
       <c r="L38" s="3">
         <v>65</v>
       </c>
-      <c r="M38" s="5"/>
+      <c r="M38" s="4"/>
       <c r="N38" s="3">
         <v>65</v>
       </c>
@@ -4135,7 +4132,7 @@
       <c r="L39" s="3">
         <v>65</v>
       </c>
-      <c r="M39" s="5"/>
+      <c r="M39" s="4"/>
       <c r="N39" s="3">
         <v>65</v>
       </c>
@@ -4228,7 +4225,7 @@
       <c r="L40" s="3">
         <v>65</v>
       </c>
-      <c r="M40" s="5"/>
+      <c r="M40" s="4"/>
       <c r="N40" s="3">
         <v>65</v>
       </c>
@@ -4321,7 +4318,7 @@
       <c r="L41" s="3">
         <v>42</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="3">
         <v>42</v>
       </c>
       <c r="N41" s="3">
@@ -4416,7 +4413,7 @@
       <c r="L42" s="3">
         <v>65</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="M42" s="4"/>
       <c r="N42" s="3">
         <v>65</v>
       </c>
@@ -4509,7 +4506,7 @@
       <c r="L43" s="3">
         <v>65</v>
       </c>
-      <c r="M43" s="5"/>
+      <c r="M43" s="4"/>
       <c r="N43" s="3">
         <v>65</v>
       </c>
@@ -4602,7 +4599,7 @@
       <c r="L44" s="3">
         <v>65</v>
       </c>
-      <c r="M44" s="5"/>
+      <c r="M44" s="4"/>
       <c r="N44" s="3">
         <v>65</v>
       </c>
@@ -4695,7 +4692,7 @@
       <c r="L45" s="3">
         <v>65</v>
       </c>
-      <c r="M45" s="5"/>
+      <c r="M45" s="4"/>
       <c r="N45" s="3">
         <v>65</v>
       </c>
@@ -4788,7 +4785,7 @@
       <c r="L46" s="3">
         <v>48</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="3">
         <v>48</v>
       </c>
       <c r="N46" s="3">
@@ -4883,7 +4880,7 @@
       <c r="L47" s="3">
         <v>48</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="3">
         <v>48</v>
       </c>
       <c r="N47" s="3">
@@ -4978,7 +4975,7 @@
       <c r="L48" s="3">
         <v>65</v>
       </c>
-      <c r="M48" s="5"/>
+      <c r="M48" s="4"/>
       <c r="N48" s="3">
         <v>65</v>
       </c>
@@ -5071,7 +5068,7 @@
       <c r="L49" s="3">
         <v>65</v>
       </c>
-      <c r="M49" s="5"/>
+      <c r="M49" s="4"/>
       <c r="N49" s="3">
         <v>65</v>
       </c>
@@ -5164,7 +5161,7 @@
       <c r="L50" s="3">
         <v>51</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="3">
         <v>51</v>
       </c>
       <c r="N50" s="3">
@@ -5259,7 +5256,7 @@
       <c r="L51" s="3">
         <v>65</v>
       </c>
-      <c r="M51" s="5"/>
+      <c r="M51" s="4"/>
       <c r="N51" s="3">
         <v>65</v>
       </c>
@@ -5352,7 +5349,7 @@
       <c r="L52" s="3">
         <v>61</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="3">
         <v>61</v>
       </c>
       <c r="N52" s="3">
@@ -5447,7 +5444,7 @@
       <c r="L53" s="3">
         <v>65</v>
       </c>
-      <c r="M53" s="5"/>
+      <c r="M53" s="4"/>
       <c r="N53" s="3">
         <v>65</v>
       </c>
@@ -5540,7 +5537,7 @@
       <c r="L54" s="3">
         <v>65</v>
       </c>
-      <c r="M54" s="5"/>
+      <c r="M54" s="4"/>
       <c r="N54" s="3">
         <v>65</v>
       </c>
@@ -5633,7 +5630,7 @@
       <c r="L55" s="3">
         <v>59</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="3">
         <v>59</v>
       </c>
       <c r="N55" s="3">
@@ -5728,7 +5725,7 @@
       <c r="L56" s="3">
         <v>65</v>
       </c>
-      <c r="M56" s="5"/>
+      <c r="M56" s="4"/>
       <c r="N56" s="3">
         <v>65</v>
       </c>
@@ -5821,7 +5818,7 @@
       <c r="L57" s="3">
         <v>65</v>
       </c>
-      <c r="M57" s="5"/>
+      <c r="M57" s="4"/>
       <c r="N57" s="3">
         <v>65</v>
       </c>
@@ -5914,7 +5911,7 @@
       <c r="L58" s="3">
         <v>65</v>
       </c>
-      <c r="M58" s="5"/>
+      <c r="M58" s="4"/>
       <c r="N58" s="3">
         <v>65</v>
       </c>
@@ -6007,7 +6004,7 @@
       <c r="L59" s="3">
         <v>65</v>
       </c>
-      <c r="M59" s="5"/>
+      <c r="M59" s="4"/>
       <c r="N59" s="3">
         <v>65</v>
       </c>
@@ -6100,7 +6097,7 @@
       <c r="L60" s="3">
         <v>65</v>
       </c>
-      <c r="M60" s="5"/>
+      <c r="M60" s="4"/>
       <c r="N60" s="3">
         <v>65</v>
       </c>
@@ -6193,7 +6190,7 @@
       <c r="L61" s="3">
         <v>65</v>
       </c>
-      <c r="M61" s="5"/>
+      <c r="M61" s="4"/>
       <c r="N61" s="3">
         <v>65</v>
       </c>
@@ -6286,7 +6283,7 @@
       <c r="L62" s="3">
         <v>63</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="3">
         <v>63</v>
       </c>
       <c r="N62" s="3">
@@ -6381,7 +6378,7 @@
       <c r="L63" s="3">
         <v>65</v>
       </c>
-      <c r="M63" s="5"/>
+      <c r="M63" s="4"/>
       <c r="N63" s="3">
         <v>65</v>
       </c>
@@ -6474,7 +6471,7 @@
       <c r="L64" s="3">
         <v>1</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="3">
         <v>1</v>
       </c>
       <c r="N64" s="3">
